--- a/biology/Botanique/Lotus_jaune_d'Amérique/Lotus_jaune_d'Amérique.xlsx
+++ b/biology/Botanique/Lotus_jaune_d'Amérique/Lotus_jaune_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lotus_jaune_d%27Am%C3%A9rique</t>
+          <t>Lotus_jaune_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nelumbo lutea
 Le Lotus jaune d'Amérique (Nelumbo lutea) ou lotus jaune est une espèce de plantes aquatiques de la famille des Nelumbonaceae. Son aire de répartition s'étend en Amérique du Nord, du Honduras au nord des États-Unis (Minnesota, Maine, sud des Grands Lacs).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lotus_jaune_d%27Am%C3%A9rique</t>
+          <t>Lotus_jaune_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nelumbo nucifera subsp. lutea (Willd.) Borsch &amp; Barthlott
 Nymphaea pentapetala Walter
